--- a/data/4500_automated_withplots.xlsx
+++ b/data/4500_automated_withplots.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="24160" windowHeight="13320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="820" yWindow="0" windowWidth="24160" windowHeight="13320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4500_automated.csv" sheetId="1" r:id="rId1"/>
@@ -234,11 +234,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2111860360"/>
-        <c:axId val="-2089187640"/>
+        <c:axId val="-2129871352"/>
+        <c:axId val="-2124999432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2111860360"/>
+        <c:axId val="-2129871352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -248,12 +248,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2089187640"/>
+        <c:crossAx val="-2124999432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2089187640"/>
+        <c:axId val="-2124999432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -263,7 +263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111860360"/>
+        <c:crossAx val="-2129871352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -434,11 +434,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2091439272"/>
-        <c:axId val="-2128057448"/>
+        <c:axId val="-2130012840"/>
+        <c:axId val="-2134360984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2091439272"/>
+        <c:axId val="-2130012840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -448,12 +448,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128057448"/>
+        <c:crossAx val="-2134360984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2128057448"/>
+        <c:axId val="-2134360984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -463,7 +463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091439272"/>
+        <c:crossAx val="-2130012840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -513,7 +513,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -623,11 +622,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2112848952"/>
-        <c:axId val="-2088134168"/>
+        <c:axId val="2082264584"/>
+        <c:axId val="-2131287944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2112848952"/>
+        <c:axId val="2082264584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,12 +636,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088134168"/>
+        <c:crossAx val="-2131287944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2088134168"/>
+        <c:axId val="-2131287944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,7 +651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112848952"/>
+        <c:crossAx val="2082264584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -823,11 +822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2087293832"/>
-        <c:axId val="-2110745208"/>
+        <c:axId val="-2141500632"/>
+        <c:axId val="-2139964136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2087293832"/>
+        <c:axId val="-2141500632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,12 +836,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110745208"/>
+        <c:crossAx val="-2139964136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110745208"/>
+        <c:axId val="-2139964136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2087293832"/>
+        <c:crossAx val="-2141500632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -911,6 +910,21 @@
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0994035433070866"/>
+                  <c:y val="-0.33276064450277"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$14</c:f>
@@ -1017,11 +1031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110577752"/>
-        <c:axId val="-2087238984"/>
+        <c:axId val="-2086857064"/>
+        <c:axId val="-2086907752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110577752"/>
+        <c:axId val="-2086857064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,12 +1045,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2087238984"/>
+        <c:crossAx val="-2086907752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2087238984"/>
+        <c:axId val="-2086907752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110577752"/>
+        <c:crossAx val="-2086857064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1105,6 +1119,16 @@
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$18:$A$31</c:f>
@@ -1217,11 +1241,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2088486424"/>
-        <c:axId val="-2086540376"/>
+        <c:axId val="-2086852888"/>
+        <c:axId val="-2087221080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2088486424"/>
+        <c:axId val="-2086852888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,12 +1255,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2086540376"/>
+        <c:crossAx val="-2087221080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2086540376"/>
+        <c:axId val="-2087221080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,11 +1270,408 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088486424"/>
+        <c:crossAx val="-2086852888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:intercept val="0.0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$18:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$18:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.323031425476046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.826377868652351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.658209800720201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2874212265015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.20607376098635</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.885618209838899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.79488658905025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.973011970520048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.157448768615698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.74643421173095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.4385929107666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.3482542037964</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.4970827102661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2091358600"/>
+        <c:axId val="-2083017704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2091358600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2083017704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2083017704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2091358600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0652751531058618"/>
+                  <c:y val="-0.455026975794692"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>18.18774223327635</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.46495246887205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.19322013854975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.69074821472165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.91275215148925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.12356376647945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3324470520019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.90989398956295</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.600030899047802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.690051078796351</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.753770828247</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.867193222045898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2094308488"/>
+        <c:axId val="-2082668616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2094308488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2082668616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2082668616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2094308488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1445,6 +1866,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5436,15 +5917,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E31"/>
+  <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="F2:F14 A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5456,8 +5937,12 @@
         <f>AVERAGE(B2:C2)</f>
         <v>36.559333801269503</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <f>E2-$E$14</f>
+        <v>18.187742233276353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5469,8 +5954,12 @@
         <f t="shared" ref="E3:E14" si="0">AVERAGE(B3:C3)</f>
         <v>35.836544036865199</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <f t="shared" ref="F3:F14" si="1">E3-$E$14</f>
+        <v>17.464952468872049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5482,8 +5971,12 @@
         <f t="shared" si="0"/>
         <v>33.564811706542898</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>15.193220138549748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5495,8 +5988,12 @@
         <f t="shared" si="0"/>
         <v>31.062339782714801</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>12.690748214721651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5508,8 +6005,12 @@
         <f t="shared" si="0"/>
         <v>29.284343719482401</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>10.912752151489251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5521,8 +6022,12 @@
         <f t="shared" si="0"/>
         <v>26.495155334472599</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>8.1235637664794496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5538,8 +6043,12 @@
         <f t="shared" si="0"/>
         <v>24.70403861999505</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>6.3324470520018998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5555,8 +6064,12 @@
         <f t="shared" si="0"/>
         <v>23.281485557556099</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>4.9098939895629492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5572,8 +6085,12 @@
         <f t="shared" si="0"/>
         <v>21.971622467040952</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>3.6000308990478018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5589,8 +6106,12 @@
         <f t="shared" si="0"/>
         <v>21.061642646789501</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2.6900510787963512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5606,8 +6127,12 @@
         <f t="shared" si="0"/>
         <v>20.125362396240149</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1.7537708282469993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5623,8 +6148,12 @@
         <f t="shared" si="0"/>
         <v>19.238784790039048</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.86719322204589844</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5640,13 +6169,17 @@
         <f t="shared" si="0"/>
         <v>18.37159156799315</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5662,8 +6195,12 @@
         <f>AVERAGE(B18:C18)</f>
         <v>17.012779235839801</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <f>E18-$E$18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -5676,11 +6213,15 @@
         <v>17.212558746337798</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E31" si="1">AVERAGE(B19:C19)</f>
+        <f t="shared" ref="E19:E31" si="2">AVERAGE(B19:C19)</f>
         <v>17.335810661315847</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <f t="shared" ref="F19:F31" si="3">E19-$E$18</f>
+        <v>0.3230314254760458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -5693,11 +6234,15 @@
         <v>17.778781890869102</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.839157104492152</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>0.82637786865235086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>4</v>
       </c>
@@ -5710,11 +6255,15 @@
         <v>18.362428665161101</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.670989036560002</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>1.6582098007202006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5727,11 +6276,15 @@
         <v>19.1195068359375</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.300200462341301</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>2.2874212265015004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>6</v>
       </c>
@@ -5744,11 +6297,15 @@
         <v>20.077369689941399</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.218852996826151</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>3.2060737609863494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>7</v>
       </c>
@@ -5761,11 +6318,15 @@
         <v>20.751506805419901</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.8983974456787</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>3.8856182098388992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>8</v>
       </c>
@@ -5778,11 +6339,15 @@
         <v>21.5700149536132</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.807665824890051</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>4.7948865890502503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>9</v>
       </c>
@@ -5795,11 +6360,15 @@
         <v>22.677160263061499</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.985791206359849</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>5.973011970520048</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>10</v>
       </c>
@@ -5812,11 +6381,15 @@
         <v>23.919723510742099</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.170228004455499</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>7.1574487686156978</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>11</v>
       </c>
@@ -5829,11 +6402,15 @@
         <v>25.124238967895501</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.759213447570751</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>8.7464342117309499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>12</v>
       </c>
@@ -5846,11 +6423,15 @@
         <v>26.75927734375</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.451372146606399</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>10.438592910766598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>13</v>
       </c>
@@ -5863,11 +6444,15 @@
         <v>28.933671951293899</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.361033439636202</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>12.348254203796401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>14</v>
       </c>
@@ -5880,8 +6465,12 @@
         <v>30.963945388793899</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.5098619461059</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>14.497082710266099</v>
       </c>
     </row>
   </sheetData>
